--- a/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
+++ b/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI14"/>
+  <dimension ref="A1:EL14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,320 +811,335 @@
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 7.select.id</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 7.select.name</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 7.select.color</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.id</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.type</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 22.select</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.id</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.type</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.select.id</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.select.name</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 1.select.color</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 30.id</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 30.type</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 30.select</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 9.id</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 9.type</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 9.select</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 16.id</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 16.type</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 16.select</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 15.id</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 15.type</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 15.select</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 29.id</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 29.type</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 29.select</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 31.id</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 31.type</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 31.select</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 13.id</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 13.type</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 13.select</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.id</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.type</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.select</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.id</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.type</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 24.select</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 17.id</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 17.type</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 17.select</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 8.id</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 8.type</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 8.select</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.id</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.type</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.select.id</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.select.name</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 4.select.color</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.id</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.type</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.rollup.type</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.rollup.array</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.rollup.function</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 14.id</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 14.type</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 14.select</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.STT.id</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>properties.STT.type</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.STT.title</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 6.select</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 5.select</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 3.select</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 2.select</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 7.select</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 22.id</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 22.type</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 22.select</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 1.id</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 1.type</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 1.select.id</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 1.select.name</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 1.select.color</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 30.id</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 30.type</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 30.select</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 9.id</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 9.type</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 9.select</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 16.id</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 16.type</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 16.select</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 15.id</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 15.type</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 15.select</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 29.id</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 29.type</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 29.select</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 31.id</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 31.type</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 31.select</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 13.id</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 13.type</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 13.select</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 18.id</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 18.type</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 18.select</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 24.id</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 24.type</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 24.select</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 17.id</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 17.type</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 17.select</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 8.id</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 8.type</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 8.select</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 4.id</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 4.type</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 4.select.id</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 4.select.name</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 4.select.color</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.id</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.type</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.rollup.type</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.rollup.array</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.rollup.function</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 14.id</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 14.type</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 14.select</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>properties.STT.id</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>properties.STT.type</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>properties.STT.title</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 6.select</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 5.select</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 3.select</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày 2.select</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select</t>
         </is>
@@ -1148,7 +1163,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-06T10:42:00.000Z</t>
+          <t>2024-07-07T01:33:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1444,246 +1459,261 @@
           <t>select</t>
         </is>
       </c>
-      <c r="BX2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>VRLp</t>
+        </is>
+      </c>
       <c r="BY2" t="inlineStr">
         <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA2" t="inlineStr"/>
       <c r="CB2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="CE2" t="inlineStr">
+      <c r="CG2" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="CF2" t="inlineStr">
+      <c r="CH2" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="CG2" t="inlineStr">
+      <c r="CI2" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO2" t="inlineStr"/>
       <c r="CP2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX2" t="inlineStr"/>
       <c r="CY2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA2" t="inlineStr"/>
       <c r="DB2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD2" t="inlineStr"/>
       <c r="DE2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG2" t="inlineStr"/>
       <c r="DH2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ2" t="inlineStr"/>
       <c r="DK2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM2" t="inlineStr"/>
       <c r="DN2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP2" t="inlineStr">
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DQ2" t="inlineStr">
+      <c r="DS2" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DR2" t="inlineStr">
+      <c r="DT2" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="DS2" t="inlineStr">
+      <c r="DU2" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT2" t="inlineStr">
+      <c r="DV2" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU2" t="inlineStr">
+      <c r="DW2" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV2" t="inlineStr">
+      <c r="DX2" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
-      <c r="DW2" t="inlineStr">
+      <c r="DY2" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX2" t="inlineStr">
+      <c r="DZ2" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ2" t="inlineStr"/>
       <c r="EA2" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB2" t="inlineStr">
+      <c r="ED2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC2" t="inlineStr">
+      <c r="EE2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr"/>
       <c r="EF2" t="inlineStr"/>
       <c r="EG2" t="inlineStr"/>
       <c r="EH2" t="inlineStr"/>
       <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1952,221 +1982,224 @@
         </is>
       </c>
       <c r="BX3" t="inlineStr"/>
-      <c r="BY3" t="inlineStr">
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA3" t="inlineStr"/>
       <c r="CB3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr"/>
-      <c r="CE3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr">
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL3" t="inlineStr"/>
       <c r="CM3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU3" t="inlineStr"/>
       <c r="CV3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX3" t="inlineStr"/>
       <c r="CY3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA3" t="inlineStr"/>
       <c r="DB3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD3" t="inlineStr"/>
       <c r="DE3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG3" t="inlineStr"/>
       <c r="DH3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ3" t="inlineStr"/>
       <c r="DK3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM3" t="inlineStr"/>
       <c r="DN3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP3" t="inlineStr"/>
-      <c r="DQ3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr">
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT3" t="inlineStr">
+      <c r="DV3" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU3" t="inlineStr">
+      <c r="DW3" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV3" t="inlineStr">
+      <c r="DX3" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
-      <c r="DW3" t="inlineStr">
+      <c r="DY3" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX3" t="inlineStr">
+      <c r="DZ3" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ3" t="inlineStr"/>
       <c r="EA3" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB3" t="inlineStr">
+      <c r="ED3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC3" t="inlineStr">
+      <c r="EE3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="inlineStr"/>
       <c r="EF3" t="inlineStr"/>
       <c r="EG3" t="inlineStr"/>
       <c r="EH3" t="inlineStr"/>
       <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2435,221 +2468,224 @@
         </is>
       </c>
       <c r="BX4" t="inlineStr"/>
-      <c r="BY4" t="inlineStr">
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA4" t="inlineStr"/>
       <c r="CB4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr"/>
-      <c r="CE4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF4" t="inlineStr"/>
-      <c r="CG4" t="inlineStr">
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL4" t="inlineStr"/>
       <c r="CM4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR4" t="inlineStr"/>
       <c r="CS4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU4" t="inlineStr"/>
       <c r="CV4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX4" t="inlineStr"/>
       <c r="CY4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA4" t="inlineStr"/>
       <c r="DB4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD4" t="inlineStr"/>
       <c r="DE4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG4" t="inlineStr"/>
       <c r="DH4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ4" t="inlineStr"/>
       <c r="DK4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM4" t="inlineStr"/>
       <c r="DN4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP4" t="inlineStr"/>
-      <c r="DQ4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR4" t="inlineStr"/>
-      <c r="DS4" t="inlineStr">
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT4" t="inlineStr">
+      <c r="DV4" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU4" t="inlineStr">
+      <c r="DW4" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV4" t="inlineStr">
+      <c r="DX4" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
-      <c r="DW4" t="inlineStr">
+      <c r="DY4" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX4" t="inlineStr">
+      <c r="DZ4" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ4" t="inlineStr"/>
       <c r="EA4" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB4" t="inlineStr">
+      <c r="ED4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC4" t="inlineStr">
+      <c r="EE4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED4" t="inlineStr"/>
-      <c r="EE4" t="inlineStr"/>
       <c r="EF4" t="inlineStr"/>
       <c r="EG4" t="inlineStr"/>
       <c r="EH4" t="inlineStr"/>
       <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2918,221 +2954,224 @@
         </is>
       </c>
       <c r="BX5" t="inlineStr"/>
-      <c r="BY5" t="inlineStr">
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA5" t="inlineStr"/>
       <c r="CB5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr"/>
-      <c r="CE5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF5" t="inlineStr"/>
-      <c r="CG5" t="inlineStr">
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr"/>
       <c r="CJ5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL5" t="inlineStr"/>
       <c r="CM5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO5" t="inlineStr"/>
       <c r="CP5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR5" t="inlineStr"/>
       <c r="CS5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX5" t="inlineStr"/>
       <c r="CY5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA5" t="inlineStr"/>
       <c r="DB5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD5" t="inlineStr"/>
       <c r="DE5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG5" t="inlineStr"/>
       <c r="DH5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ5" t="inlineStr"/>
       <c r="DK5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM5" t="inlineStr"/>
       <c r="DN5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP5" t="inlineStr"/>
-      <c r="DQ5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR5" t="inlineStr"/>
-      <c r="DS5" t="inlineStr">
+      <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT5" t="inlineStr">
+      <c r="DV5" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU5" t="inlineStr">
+      <c r="DW5" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV5" t="inlineStr">
+      <c r="DX5" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
-      <c r="DW5" t="inlineStr">
+      <c r="DY5" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX5" t="inlineStr">
+      <c r="DZ5" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ5" t="inlineStr"/>
       <c r="EA5" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB5" t="inlineStr">
+      <c r="ED5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC5" t="inlineStr">
+      <c r="EE5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED5" t="inlineStr"/>
-      <c r="EE5" t="inlineStr"/>
       <c r="EF5" t="inlineStr"/>
       <c r="EG5" t="inlineStr"/>
       <c r="EH5" t="inlineStr"/>
       <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3152,7 +3191,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-06T10:32:00.000Z</t>
+          <t>2024-07-07T10:25:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -3448,246 +3487,261 @@
           <t>select</t>
         </is>
       </c>
-      <c r="BX6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
       <c r="BY6" t="inlineStr">
         <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA6" t="inlineStr"/>
       <c r="CB6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD6" t="inlineStr">
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="CE6" t="inlineStr">
+      <c r="CG6" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="CF6" t="inlineStr">
+      <c r="CH6" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="CG6" t="inlineStr">
+      <c r="CI6" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL6" t="inlineStr"/>
       <c r="CM6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO6" t="inlineStr"/>
       <c r="CP6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR6" t="inlineStr"/>
       <c r="CS6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX6" t="inlineStr"/>
       <c r="CY6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA6" t="inlineStr"/>
       <c r="DB6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD6" t="inlineStr"/>
       <c r="DE6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG6" t="inlineStr"/>
       <c r="DH6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ6" t="inlineStr"/>
       <c r="DK6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM6" t="inlineStr"/>
       <c r="DN6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP6" t="inlineStr">
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DR6" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DQ6" t="inlineStr">
+      <c r="DS6" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DR6" t="inlineStr">
+      <c r="DT6" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="DS6" t="inlineStr">
+      <c r="DU6" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT6" t="inlineStr">
+      <c r="DV6" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU6" t="inlineStr">
+      <c r="DW6" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV6" t="inlineStr">
+      <c r="DX6" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
-      <c r="DW6" t="inlineStr">
+      <c r="DY6" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX6" t="inlineStr">
+      <c r="DZ6" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ6" t="inlineStr"/>
       <c r="EA6" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB6" t="inlineStr">
+      <c r="ED6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC6" t="inlineStr">
+      <c r="EE6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED6" t="inlineStr"/>
-      <c r="EE6" t="inlineStr"/>
       <c r="EF6" t="inlineStr"/>
       <c r="EG6" t="inlineStr"/>
       <c r="EH6" t="inlineStr"/>
       <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3707,7 +3761,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-06T10:32:00.000Z</t>
+          <t>2024-07-07T10:25:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -4003,246 +4057,261 @@
           <t>select</t>
         </is>
       </c>
-      <c r="BX7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
       <c r="BY7" t="inlineStr">
         <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA7" t="inlineStr"/>
       <c r="CB7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD7" t="inlineStr">
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="CE7" t="inlineStr">
+      <c r="CG7" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="CF7" t="inlineStr">
+      <c r="CH7" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="CG7" t="inlineStr">
+      <c r="CI7" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL7" t="inlineStr"/>
       <c r="CM7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU7" t="inlineStr"/>
       <c r="CV7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX7" t="inlineStr"/>
       <c r="CY7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA7" t="inlineStr"/>
       <c r="DB7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD7" t="inlineStr"/>
       <c r="DE7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG7" t="inlineStr"/>
       <c r="DH7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ7" t="inlineStr"/>
       <c r="DK7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM7" t="inlineStr"/>
       <c r="DN7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP7" t="inlineStr">
+      <c r="DQ7" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DR7" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DQ7" t="inlineStr">
+      <c r="DS7" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DR7" t="inlineStr">
+      <c r="DT7" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="DS7" t="inlineStr">
+      <c r="DU7" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT7" t="inlineStr">
+      <c r="DV7" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU7" t="inlineStr">
+      <c r="DW7" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV7" t="inlineStr">
+      <c r="DX7" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
-      <c r="DW7" t="inlineStr">
+      <c r="DY7" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX7" t="inlineStr">
+      <c r="DZ7" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ7" t="inlineStr"/>
       <c r="EA7" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB7" t="inlineStr"/>
+      <c r="EC7" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB7" t="inlineStr">
+      <c r="ED7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC7" t="inlineStr">
+      <c r="EE7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED7" t="inlineStr"/>
-      <c r="EE7" t="inlineStr"/>
       <c r="EF7" t="inlineStr"/>
       <c r="EG7" t="inlineStr"/>
       <c r="EH7" t="inlineStr"/>
       <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="inlineStr"/>
+      <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4511,221 +4580,224 @@
         </is>
       </c>
       <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr">
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA8" t="inlineStr"/>
       <c r="CB8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr">
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL8" t="inlineStr"/>
       <c r="CM8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR8" t="inlineStr"/>
       <c r="CS8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX8" t="inlineStr"/>
       <c r="CY8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA8" t="inlineStr"/>
       <c r="DB8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD8" t="inlineStr"/>
       <c r="DE8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG8" t="inlineStr"/>
       <c r="DH8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr"/>
+      <c r="DJ8" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ8" t="inlineStr"/>
       <c r="DK8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM8" t="inlineStr"/>
       <c r="DN8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP8" t="inlineStr"/>
-      <c r="DQ8" t="inlineStr"/>
+      <c r="DQ8" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR8" t="inlineStr"/>
-      <c r="DS8" t="inlineStr">
+      <c r="DS8" t="inlineStr"/>
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT8" t="inlineStr">
+      <c r="DV8" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU8" t="inlineStr">
+      <c r="DW8" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV8" t="inlineStr">
+      <c r="DX8" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
-      <c r="DW8" t="inlineStr">
+      <c r="DY8" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX8" t="inlineStr">
+      <c r="DZ8" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ8" t="inlineStr"/>
       <c r="EA8" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB8" t="inlineStr"/>
+      <c r="EC8" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB8" t="inlineStr">
+      <c r="ED8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC8" t="inlineStr">
+      <c r="EE8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED8" t="inlineStr"/>
-      <c r="EE8" t="inlineStr"/>
       <c r="EF8" t="inlineStr"/>
       <c r="EG8" t="inlineStr"/>
       <c r="EH8" t="inlineStr"/>
       <c r="EI8" t="inlineStr"/>
+      <c r="EJ8" t="inlineStr"/>
+      <c r="EK8" t="inlineStr"/>
+      <c r="EL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4994,221 +5066,224 @@
         </is>
       </c>
       <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr">
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr">
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL9" t="inlineStr"/>
       <c r="CM9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO9" t="inlineStr"/>
       <c r="CP9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR9" t="inlineStr"/>
       <c r="CS9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU9" t="inlineStr"/>
       <c r="CV9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX9" t="inlineStr"/>
       <c r="CY9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA9" t="inlineStr"/>
       <c r="DB9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD9" t="inlineStr"/>
       <c r="DE9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr"/>
+      <c r="DG9" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG9" t="inlineStr"/>
       <c r="DH9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr"/>
+      <c r="DJ9" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ9" t="inlineStr"/>
       <c r="DK9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM9" t="inlineStr"/>
       <c r="DN9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP9" t="inlineStr"/>
-      <c r="DQ9" t="inlineStr"/>
+      <c r="DQ9" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR9" t="inlineStr"/>
-      <c r="DS9" t="inlineStr">
+      <c r="DS9" t="inlineStr"/>
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT9" t="inlineStr">
+      <c r="DV9" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU9" t="inlineStr">
+      <c r="DW9" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV9" t="inlineStr">
+      <c r="DX9" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
-      <c r="DW9" t="inlineStr">
+      <c r="DY9" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX9" t="inlineStr">
+      <c r="DZ9" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ9" t="inlineStr"/>
       <c r="EA9" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB9" t="inlineStr"/>
+      <c r="EC9" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB9" t="inlineStr">
+      <c r="ED9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC9" t="inlineStr">
+      <c r="EE9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED9" t="inlineStr"/>
-      <c r="EE9" t="inlineStr"/>
       <c r="EF9" t="inlineStr"/>
       <c r="EG9" t="inlineStr"/>
       <c r="EH9" t="inlineStr"/>
       <c r="EI9" t="inlineStr"/>
+      <c r="EJ9" t="inlineStr"/>
+      <c r="EK9" t="inlineStr"/>
+      <c r="EL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5477,221 +5552,224 @@
         </is>
       </c>
       <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr">
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA10" t="inlineStr"/>
       <c r="CB10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr">
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL10" t="inlineStr"/>
       <c r="CM10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR10" t="inlineStr"/>
       <c r="CS10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU10" t="inlineStr"/>
       <c r="CV10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX10" t="inlineStr"/>
       <c r="CY10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA10" t="inlineStr"/>
       <c r="DB10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD10" t="inlineStr"/>
       <c r="DE10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF10" t="inlineStr"/>
+      <c r="DG10" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG10" t="inlineStr"/>
       <c r="DH10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr"/>
+      <c r="DJ10" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ10" t="inlineStr"/>
       <c r="DK10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM10" t="inlineStr"/>
       <c r="DN10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP10" t="inlineStr"/>
-      <c r="DQ10" t="inlineStr"/>
+      <c r="DQ10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR10" t="inlineStr"/>
-      <c r="DS10" t="inlineStr">
+      <c r="DS10" t="inlineStr"/>
+      <c r="DT10" t="inlineStr"/>
+      <c r="DU10" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT10" t="inlineStr">
+      <c r="DV10" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU10" t="inlineStr">
+      <c r="DW10" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV10" t="inlineStr">
+      <c r="DX10" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
-      <c r="DW10" t="inlineStr">
+      <c r="DY10" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX10" t="inlineStr">
+      <c r="DZ10" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ10" t="inlineStr"/>
       <c r="EA10" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB10" t="inlineStr"/>
+      <c r="EC10" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB10" t="inlineStr">
+      <c r="ED10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC10" t="inlineStr">
+      <c r="EE10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED10" t="inlineStr"/>
-      <c r="EE10" t="inlineStr"/>
       <c r="EF10" t="inlineStr"/>
       <c r="EG10" t="inlineStr"/>
       <c r="EH10" t="inlineStr"/>
       <c r="EI10" t="inlineStr"/>
+      <c r="EJ10" t="inlineStr"/>
+      <c r="EK10" t="inlineStr"/>
+      <c r="EL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5711,7 +5789,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-06T10:32:00.000Z</t>
+          <t>2024-07-07T10:25:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -6007,246 +6085,261 @@
           <t>select</t>
         </is>
       </c>
-      <c r="BX11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
       <c r="BY11" t="inlineStr">
         <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA11" t="inlineStr"/>
       <c r="CB11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD11" t="inlineStr">
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="CE11" t="inlineStr">
+      <c r="CG11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="CF11" t="inlineStr">
+      <c r="CH11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="CG11" t="inlineStr">
+      <c r="CI11" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR11" t="inlineStr"/>
       <c r="CS11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX11" t="inlineStr"/>
       <c r="CY11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA11" t="inlineStr"/>
       <c r="DB11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD11" t="inlineStr"/>
       <c r="DE11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF11" t="inlineStr"/>
+      <c r="DG11" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG11" t="inlineStr"/>
       <c r="DH11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI11" t="inlineStr"/>
+      <c r="DJ11" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ11" t="inlineStr"/>
       <c r="DK11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL11" t="inlineStr"/>
+      <c r="DM11" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM11" t="inlineStr"/>
       <c r="DN11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr"/>
+      <c r="DP11" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP11" t="inlineStr">
+      <c r="DQ11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DR11" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DQ11" t="inlineStr">
+      <c r="DS11" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DR11" t="inlineStr">
+      <c r="DT11" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="DS11" t="inlineStr">
+      <c r="DU11" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT11" t="inlineStr">
+      <c r="DV11" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU11" t="inlineStr">
+      <c r="DW11" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV11" t="inlineStr">
+      <c r="DX11" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
-      <c r="DW11" t="inlineStr">
+      <c r="DY11" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX11" t="inlineStr">
+      <c r="DZ11" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ11" t="inlineStr"/>
       <c r="EA11" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB11" t="inlineStr"/>
+      <c r="EC11" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB11" t="inlineStr">
+      <c r="ED11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC11" t="inlineStr">
+      <c r="EE11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED11" t="inlineStr"/>
-      <c r="EE11" t="inlineStr"/>
       <c r="EF11" t="inlineStr"/>
       <c r="EG11" t="inlineStr"/>
       <c r="EH11" t="inlineStr"/>
       <c r="EI11" t="inlineStr"/>
+      <c r="EJ11" t="inlineStr"/>
+      <c r="EK11" t="inlineStr"/>
+      <c r="EL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6266,7 +6359,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-06T10:32:00.000Z</t>
+          <t>2024-07-07T10:25:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -6562,246 +6655,261 @@
           <t>select</t>
         </is>
       </c>
-      <c r="BX12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
       <c r="BY12" t="inlineStr">
         <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA12" t="inlineStr"/>
       <c r="CB12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD12" t="inlineStr">
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="CE12" t="inlineStr">
+      <c r="CG12" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="CF12" t="inlineStr">
+      <c r="CH12" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="CG12" t="inlineStr">
+      <c r="CI12" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL12" t="inlineStr"/>
       <c r="CM12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO12" t="inlineStr"/>
       <c r="CP12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR12" t="inlineStr"/>
       <c r="CS12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU12" t="inlineStr"/>
       <c r="CV12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX12" t="inlineStr"/>
       <c r="CY12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA12" t="inlineStr"/>
       <c r="DB12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD12" t="inlineStr"/>
       <c r="DE12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG12" t="inlineStr"/>
       <c r="DH12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ12" t="inlineStr"/>
       <c r="DK12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM12" t="inlineStr"/>
       <c r="DN12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP12" t="inlineStr">
+      <c r="DQ12" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DR12" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DQ12" t="inlineStr">
+      <c r="DS12" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DR12" t="inlineStr">
+      <c r="DT12" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="DS12" t="inlineStr">
+      <c r="DU12" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT12" t="inlineStr">
+      <c r="DV12" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU12" t="inlineStr">
+      <c r="DW12" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV12" t="inlineStr">
+      <c r="DX12" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
-      <c r="DW12" t="inlineStr">
+      <c r="DY12" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX12" t="inlineStr">
+      <c r="DZ12" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ12" t="inlineStr"/>
       <c r="EA12" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB12" t="inlineStr"/>
+      <c r="EC12" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB12" t="inlineStr">
+      <c r="ED12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC12" t="inlineStr">
+      <c r="EE12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED12" t="inlineStr"/>
-      <c r="EE12" t="inlineStr"/>
       <c r="EF12" t="inlineStr"/>
       <c r="EG12" t="inlineStr"/>
       <c r="EH12" t="inlineStr"/>
       <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="inlineStr"/>
+      <c r="EK12" t="inlineStr"/>
+      <c r="EL12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7070,221 +7178,224 @@
         </is>
       </c>
       <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr">
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA13" t="inlineStr"/>
       <c r="CB13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr">
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI13" t="inlineStr"/>
       <c r="CJ13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL13" t="inlineStr"/>
       <c r="CM13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO13" t="inlineStr"/>
       <c r="CP13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR13" t="inlineStr"/>
       <c r="CS13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU13" t="inlineStr"/>
       <c r="CV13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX13" t="inlineStr"/>
       <c r="CY13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA13" t="inlineStr"/>
       <c r="DB13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD13" t="inlineStr"/>
       <c r="DE13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG13" t="inlineStr"/>
       <c r="DH13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr"/>
+      <c r="DJ13" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ13" t="inlineStr"/>
       <c r="DK13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM13" t="inlineStr"/>
       <c r="DN13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP13" t="inlineStr"/>
-      <c r="DQ13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR13" t="inlineStr"/>
-      <c r="DS13" t="inlineStr">
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT13" t="inlineStr">
+      <c r="DV13" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU13" t="inlineStr">
+      <c r="DW13" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV13" t="inlineStr">
+      <c r="DX13" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
-      <c r="DW13" t="inlineStr">
+      <c r="DY13" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX13" t="inlineStr">
+      <c r="DZ13" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ13" t="inlineStr"/>
       <c r="EA13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB13" t="inlineStr">
+      <c r="ED13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC13" t="inlineStr">
+      <c r="EE13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED13" t="inlineStr"/>
-      <c r="EE13" t="inlineStr"/>
       <c r="EF13" t="inlineStr"/>
       <c r="EG13" t="inlineStr"/>
       <c r="EH13" t="inlineStr"/>
       <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7553,221 +7664,224 @@
         </is>
       </c>
       <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr">
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr">
         <is>
           <t>%60duC</t>
         </is>
       </c>
-      <c r="BZ14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CA14" t="inlineStr"/>
       <c r="CB14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr">
+        <is>
           <t>avzr</t>
         </is>
       </c>
-      <c r="CC14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr">
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr">
         <is>
           <t>b%3Fyl</t>
         </is>
       </c>
-      <c r="CH14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CI14" t="inlineStr"/>
       <c r="CJ14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr">
+        <is>
           <t>bOrs</t>
         </is>
       </c>
-      <c r="CK14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CL14" t="inlineStr"/>
       <c r="CM14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr">
+        <is>
           <t>e%5EUO</t>
         </is>
       </c>
-      <c r="CN14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr">
+        <is>
           <t>fKUN</t>
         </is>
       </c>
-      <c r="CQ14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CR14" t="inlineStr"/>
       <c r="CS14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr">
+        <is>
           <t>fezN</t>
         </is>
       </c>
-      <c r="CT14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CU14" t="inlineStr"/>
       <c r="CV14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr">
+        <is>
           <t>iFzs</t>
         </is>
       </c>
-      <c r="CW14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="CX14" t="inlineStr"/>
       <c r="CY14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="inlineStr">
+        <is>
           <t>jsqT</t>
         </is>
       </c>
-      <c r="CZ14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DA14" t="inlineStr"/>
       <c r="DB14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr">
+        <is>
           <t>n%3CXZ</t>
         </is>
       </c>
-      <c r="DC14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DD14" t="inlineStr"/>
       <c r="DE14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF14" t="inlineStr"/>
+      <c r="DG14" t="inlineStr">
+        <is>
           <t>rsuC</t>
         </is>
       </c>
-      <c r="DF14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DG14" t="inlineStr"/>
       <c r="DH14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DI14" t="inlineStr"/>
+      <c r="DJ14" t="inlineStr">
+        <is>
           <t>yEwL</t>
         </is>
       </c>
-      <c r="DI14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DJ14" t="inlineStr"/>
       <c r="DK14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr">
+        <is>
           <t>zBvN</t>
         </is>
       </c>
-      <c r="DL14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DM14" t="inlineStr"/>
       <c r="DN14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr">
+        <is>
           <t>%7B%3EFf</t>
         </is>
       </c>
-      <c r="DO14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DP14" t="inlineStr"/>
-      <c r="DQ14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
       <c r="DR14" t="inlineStr"/>
-      <c r="DS14" t="inlineStr">
+      <c r="DS14" t="inlineStr"/>
+      <c r="DT14" t="inlineStr"/>
+      <c r="DU14" t="inlineStr">
         <is>
           <t>%7BVCZ</t>
         </is>
       </c>
-      <c r="DT14" t="inlineStr">
+      <c r="DV14" t="inlineStr">
         <is>
           <t>rollup</t>
         </is>
       </c>
-      <c r="DU14" t="inlineStr">
+      <c r="DW14" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="DV14" t="inlineStr">
+      <c r="DX14" t="inlineStr">
         <is>
           <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
-      <c r="DW14" t="inlineStr">
+      <c r="DY14" t="inlineStr">
         <is>
           <t>show_original</t>
         </is>
       </c>
-      <c r="DX14" t="inlineStr">
+      <c r="DZ14" t="inlineStr">
         <is>
           <t>~q%3Ax</t>
         </is>
       </c>
-      <c r="DY14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="DZ14" t="inlineStr"/>
       <c r="EA14" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="EB14" t="inlineStr"/>
+      <c r="EC14" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EB14" t="inlineStr">
+      <c r="ED14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="EC14" t="inlineStr">
+      <c r="EE14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED14" t="inlineStr"/>
-      <c r="EE14" t="inlineStr"/>
       <c r="EF14" t="inlineStr"/>
       <c r="EG14" t="inlineStr"/>
       <c r="EH14" t="inlineStr"/>
       <c r="EI14" t="inlineStr"/>
+      <c r="EJ14" t="inlineStr"/>
+      <c r="EK14" t="inlineStr"/>
+      <c r="EL14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
+++ b/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FP20"/>
+  <dimension ref="A1:FS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,60 +1236,75 @@
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 18.select.id</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.select.name</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 18.select.color</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 17.select.id</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.name</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.color</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.id</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.name</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.color</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.id</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.name</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.color</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.id</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.name</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.color</t>
         </is>
@@ -1810,6 +1825,9 @@
       <c r="FN2" t="inlineStr"/>
       <c r="FO2" t="inlineStr"/>
       <c r="FP2" t="inlineStr"/>
+      <c r="FQ2" t="inlineStr"/>
+      <c r="FR2" t="inlineStr"/>
+      <c r="FS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2326,6 +2344,9 @@
       <c r="FN3" t="inlineStr"/>
       <c r="FO3" t="inlineStr"/>
       <c r="FP3" t="inlineStr"/>
+      <c r="FQ3" t="inlineStr"/>
+      <c r="FR3" t="inlineStr"/>
+      <c r="FS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2842,6 +2863,9 @@
       <c r="FN4" t="inlineStr"/>
       <c r="FO4" t="inlineStr"/>
       <c r="FP4" t="inlineStr"/>
+      <c r="FQ4" t="inlineStr"/>
+      <c r="FR4" t="inlineStr"/>
+      <c r="FS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3358,6 +3382,9 @@
       <c r="FN5" t="inlineStr"/>
       <c r="FO5" t="inlineStr"/>
       <c r="FP5" t="inlineStr"/>
+      <c r="FQ5" t="inlineStr"/>
+      <c r="FR5" t="inlineStr"/>
+      <c r="FS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3874,6 +3901,9 @@
       <c r="FN6" t="inlineStr"/>
       <c r="FO6" t="inlineStr"/>
       <c r="FP6" t="inlineStr"/>
+      <c r="FQ6" t="inlineStr"/>
+      <c r="FR6" t="inlineStr"/>
+      <c r="FS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4390,6 +4420,9 @@
       <c r="FN7" t="inlineStr"/>
       <c r="FO7" t="inlineStr"/>
       <c r="FP7" t="inlineStr"/>
+      <c r="FQ7" t="inlineStr"/>
+      <c r="FR7" t="inlineStr"/>
+      <c r="FS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4409,7 +4442,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T10:30:00.000Z</t>
+          <t>2024-07-18T10:57:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -5106,6 +5139,21 @@
         </is>
       </c>
       <c r="FP8" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ8" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR8" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS8" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -5626,6 +5674,9 @@
       <c r="FN9" t="inlineStr"/>
       <c r="FO9" t="inlineStr"/>
       <c r="FP9" t="inlineStr"/>
+      <c r="FQ9" t="inlineStr"/>
+      <c r="FR9" t="inlineStr"/>
+      <c r="FS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6142,6 +6193,9 @@
       <c r="FN10" t="inlineStr"/>
       <c r="FO10" t="inlineStr"/>
       <c r="FP10" t="inlineStr"/>
+      <c r="FQ10" t="inlineStr"/>
+      <c r="FR10" t="inlineStr"/>
+      <c r="FS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6658,6 +6712,9 @@
       <c r="FN11" t="inlineStr"/>
       <c r="FO11" t="inlineStr"/>
       <c r="FP11" t="inlineStr"/>
+      <c r="FQ11" t="inlineStr"/>
+      <c r="FR11" t="inlineStr"/>
+      <c r="FS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6677,7 +6734,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T10:30:00.000Z</t>
+          <t>2024-07-18T10:57:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -7320,60 +7377,75 @@
       </c>
       <c r="FE12" t="inlineStr">
         <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF12" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG12" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH12" t="inlineStr">
+        <is>
           <t>VRLp</t>
         </is>
       </c>
-      <c r="FF12" t="inlineStr">
+      <c r="FI12" t="inlineStr">
         <is>
           <t>Nghỉ có phép</t>
         </is>
       </c>
-      <c r="FG12" t="inlineStr">
+      <c r="FJ12" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="FH12" t="inlineStr">
+      <c r="FK12" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI12" t="inlineStr">
+      <c r="FL12" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ12" t="inlineStr">
+      <c r="FM12" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK12" t="inlineStr">
+      <c r="FN12" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FL12" t="inlineStr">
+      <c r="FO12" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FM12" t="inlineStr">
+      <c r="FP12" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FN12" t="inlineStr">
+      <c r="FQ12" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO12" t="inlineStr">
+      <c r="FR12" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP12" t="inlineStr">
+      <c r="FS12" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -7397,7 +7469,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T10:30:00.000Z</t>
+          <t>2024-07-18T10:57:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -8094,6 +8166,21 @@
         </is>
       </c>
       <c r="FP13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -8605,27 +8692,30 @@
       <c r="FE14" t="inlineStr"/>
       <c r="FF14" t="inlineStr"/>
       <c r="FG14" t="inlineStr"/>
-      <c r="FH14" t="inlineStr">
+      <c r="FH14" t="inlineStr"/>
+      <c r="FI14" t="inlineStr"/>
+      <c r="FJ14" t="inlineStr"/>
+      <c r="FK14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI14" t="inlineStr">
+      <c r="FL14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ14" t="inlineStr">
+      <c r="FM14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK14" t="inlineStr"/>
-      <c r="FL14" t="inlineStr"/>
-      <c r="FM14" t="inlineStr"/>
       <c r="FN14" t="inlineStr"/>
       <c r="FO14" t="inlineStr"/>
       <c r="FP14" t="inlineStr"/>
+      <c r="FQ14" t="inlineStr"/>
+      <c r="FR14" t="inlineStr"/>
+      <c r="FS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9142,6 +9232,9 @@
       <c r="FN15" t="inlineStr"/>
       <c r="FO15" t="inlineStr"/>
       <c r="FP15" t="inlineStr"/>
+      <c r="FQ15" t="inlineStr"/>
+      <c r="FR15" t="inlineStr"/>
+      <c r="FS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9658,6 +9751,9 @@
       <c r="FN16" t="inlineStr"/>
       <c r="FO16" t="inlineStr"/>
       <c r="FP16" t="inlineStr"/>
+      <c r="FQ16" t="inlineStr"/>
+      <c r="FR16" t="inlineStr"/>
+      <c r="FS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9677,7 +9773,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-17T10:30:00.000Z</t>
+          <t>2024-07-18T10:57:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -10378,6 +10474,21 @@
           <t>pink</t>
         </is>
       </c>
+      <c r="FQ17" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR17" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS17" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10397,7 +10508,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-17T10:30:00.000Z</t>
+          <t>2024-07-18T10:57:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -11094,6 +11205,21 @@
         </is>
       </c>
       <c r="FP18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -11614,6 +11740,9 @@
       <c r="FN19" t="inlineStr"/>
       <c r="FO19" t="inlineStr"/>
       <c r="FP19" t="inlineStr"/>
+      <c r="FQ19" t="inlineStr"/>
+      <c r="FR19" t="inlineStr"/>
+      <c r="FS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12130,6 +12259,9 @@
       <c r="FN20" t="inlineStr"/>
       <c r="FO20" t="inlineStr"/>
       <c r="FP20" t="inlineStr"/>
+      <c r="FQ20" t="inlineStr"/>
+      <c r="FR20" t="inlineStr"/>
+      <c r="FS20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
+++ b/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FS20"/>
+  <dimension ref="A1:FV21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,240 +1071,255 @@
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 19.select.id</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 19.select.name</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 19.select.color</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 11.select.id</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 11.select.name</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 11.select.color</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 3.select.id</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 3.select.name</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 3.select.color</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 12.select.id</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 12.select.name</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 12.select.color</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 10.select.id</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 10.select.name</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 10.select.color</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 2.select.id</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 2.select.name</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 2.select.color</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.id</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.name</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.color</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.id</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.name</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.color</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.id</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.name</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.color</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.id</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.name</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.color</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.id</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.name</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.color</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.id</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.name</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.color</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.id</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.name</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.color</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.id</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.name</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.color</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.id</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.name</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.color</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.id</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.name</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.color</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.id</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.name</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.color</t>
         </is>
@@ -1318,17 +1333,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3aedf66b-b456-4347-97ae-48e4b235c4b5</t>
+          <t>9834ce79-f5b4-4dae-adec-c0a1a8eec1c9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-20T02:02:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-08T16:52:00.000Z</t>
+          <t>2024-07-20T02:02:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1341,7 +1356,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3aedf66bb456434797ae48e4b235c4b5</t>
+          <t>https://www.notion.so/9834ce79f5b44daeadecc0a1a8eec1c9</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -1352,7 +1367,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1362,7 +1377,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1475,7 +1490,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AR2" t="b">
@@ -1740,7 +1755,7 @@
       </c>
       <c r="DJ2" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="DK2" t="inlineStr">
@@ -1828,6 +1843,9 @@
       <c r="FQ2" t="inlineStr"/>
       <c r="FR2" t="inlineStr"/>
       <c r="FS2" t="inlineStr"/>
+      <c r="FT2" t="inlineStr"/>
+      <c r="FU2" t="inlineStr"/>
+      <c r="FV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1837,17 +1855,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d115d1c1-34eb-4069-bcb8-dc971095f8ad</t>
+          <t>3aedf66b-b456-4347-97ae-48e4b235c4b5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-08T16:51:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-08T16:51:00.000Z</t>
+          <t>2024-07-08T16:52:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1860,7 +1878,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/d115d1c134eb4069bcb8dc971095f8ad</t>
+          <t>https://www.notion.so/3aedf66bb456434797ae48e4b235c4b5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1994,7 +2012,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
+          <t>[{'id': 'ea0572af-f8c9-430d-9d95-23303a4ce4cd'}]</t>
         </is>
       </c>
       <c r="AR3" t="b">
@@ -2259,7 +2277,7 @@
       </c>
       <c r="DJ3" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK3" t="inlineStr">
@@ -2347,6 +2365,9 @@
       <c r="FQ3" t="inlineStr"/>
       <c r="FR3" t="inlineStr"/>
       <c r="FS3" t="inlineStr"/>
+      <c r="FT3" t="inlineStr"/>
+      <c r="FU3" t="inlineStr"/>
+      <c r="FV3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2356,7 +2377,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0747fb62-070a-47a3-9845-8966722bfb2e</t>
+          <t>d115d1c1-34eb-4069-bcb8-dc971095f8ad</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2379,7 +2400,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/0747fb62070a47a398458966722bfb2e</t>
+          <t>https://www.notion.so/d115d1c134eb4069bcb8dc971095f8ad</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -2513,7 +2534,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
+          <t>[{'id': '90bc02c2-bd1e-4c33-884a-38a1db528c78'}]</t>
         </is>
       </c>
       <c r="AR4" t="b">
@@ -2778,7 +2799,7 @@
       </c>
       <c r="DJ4" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK4" t="inlineStr">
@@ -2866,6 +2887,9 @@
       <c r="FQ4" t="inlineStr"/>
       <c r="FR4" t="inlineStr"/>
       <c r="FS4" t="inlineStr"/>
+      <c r="FT4" t="inlineStr"/>
+      <c r="FU4" t="inlineStr"/>
+      <c r="FV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2875,7 +2899,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ec6fbb96-6288-476f-abc2-c605f8c77bd9</t>
+          <t>0747fb62-070a-47a3-9845-8966722bfb2e</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2898,7 +2922,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ec6fbb966288476fabc2c605f8c77bd9</t>
+          <t>https://www.notion.so/0747fb62070a47a398458966722bfb2e</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -3032,7 +3056,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
+          <t>[{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]</t>
         </is>
       </c>
       <c r="AR5" t="b">
@@ -3385,6 +3409,9 @@
       <c r="FQ5" t="inlineStr"/>
       <c r="FR5" t="inlineStr"/>
       <c r="FS5" t="inlineStr"/>
+      <c r="FT5" t="inlineStr"/>
+      <c r="FU5" t="inlineStr"/>
+      <c r="FV5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3394,7 +3421,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a9b33b68-44f7-49f9-a755-95267817e2da</t>
+          <t>ec6fbb96-6288-476f-abc2-c605f8c77bd9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3417,7 +3444,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/a9b33b6844f749f9a75595267817e2da</t>
+          <t>https://www.notion.so/ec6fbb966288476fabc2c605f8c77bd9</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -3551,7 +3578,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
+          <t>[{'id': '7e29a9ca-b017-4ad6-a6b0-6ed9330137bc'}]</t>
         </is>
       </c>
       <c r="AR6" t="b">
@@ -3816,7 +3843,7 @@
       </c>
       <c r="DJ6" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK6" t="inlineStr">
@@ -3904,6 +3931,9 @@
       <c r="FQ6" t="inlineStr"/>
       <c r="FR6" t="inlineStr"/>
       <c r="FS6" t="inlineStr"/>
+      <c r="FT6" t="inlineStr"/>
+      <c r="FU6" t="inlineStr"/>
+      <c r="FV6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3913,7 +3943,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>082171a8-ab69-40a0-b22c-8146386dfd7e</t>
+          <t>a9b33b68-44f7-49f9-a755-95267817e2da</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3936,7 +3966,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/082171a8ab6940a0b22c8146386dfd7e</t>
+          <t>https://www.notion.so/a9b33b6844f749f9a75595267817e2da</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -4070,7 +4100,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
+          <t>[{'id': '6454d5e5-8a20-473b-a597-dc1973dd1e0e'}]</t>
         </is>
       </c>
       <c r="AR7" t="b">
@@ -4335,7 +4365,7 @@
       </c>
       <c r="DJ7" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK7" t="inlineStr">
@@ -4423,6 +4453,9 @@
       <c r="FQ7" t="inlineStr"/>
       <c r="FR7" t="inlineStr"/>
       <c r="FS7" t="inlineStr"/>
+      <c r="FT7" t="inlineStr"/>
+      <c r="FU7" t="inlineStr"/>
+      <c r="FV7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4432,17 +4465,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>67db7df7-e666-4013-9a95-fb6193d882c4</t>
+          <t>082171a8-ab69-40a0-b22c-8146386dfd7e</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-06T10:33:00.000Z</t>
+          <t>2024-07-08T16:51:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-18T10:57:00.000Z</t>
+          <t>2024-07-08T16:51:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -4455,7 +4488,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67db7df7e66640139a95fb6193d882c4</t>
+          <t>https://www.notion.so/082171a8ab6940a0b22c8146386dfd7e</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -4476,7 +4509,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -4589,7 +4622,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
+          <t>[{'id': 'e0ac0375-0b3a-4c88-a613-cb8df33ebe6b'}]</t>
         </is>
       </c>
       <c r="AR8" t="b">
@@ -4854,7 +4887,7 @@
       </c>
       <c r="DJ8" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK8" t="inlineStr">
@@ -4888,276 +4921,63 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM8" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="EN8" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="EO8" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="EP8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ8" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR8" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS8" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr"/>
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr"/>
+      <c r="DV8" t="inlineStr"/>
+      <c r="DW8" t="inlineStr"/>
+      <c r="DX8" t="inlineStr"/>
+      <c r="DY8" t="inlineStr"/>
+      <c r="DZ8" t="inlineStr"/>
+      <c r="EA8" t="inlineStr"/>
+      <c r="EB8" t="inlineStr"/>
+      <c r="EC8" t="inlineStr"/>
+      <c r="ED8" t="inlineStr"/>
+      <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr"/>
+      <c r="EG8" t="inlineStr"/>
+      <c r="EH8" t="inlineStr"/>
+      <c r="EI8" t="inlineStr"/>
+      <c r="EJ8" t="inlineStr"/>
+      <c r="EK8" t="inlineStr"/>
+      <c r="EL8" t="inlineStr"/>
+      <c r="EM8" t="inlineStr"/>
+      <c r="EN8" t="inlineStr"/>
+      <c r="EO8" t="inlineStr"/>
+      <c r="EP8" t="inlineStr"/>
+      <c r="EQ8" t="inlineStr"/>
+      <c r="ER8" t="inlineStr"/>
+      <c r="ES8" t="inlineStr"/>
+      <c r="ET8" t="inlineStr"/>
+      <c r="EU8" t="inlineStr"/>
+      <c r="EV8" t="inlineStr"/>
+      <c r="EW8" t="inlineStr"/>
+      <c r="EX8" t="inlineStr"/>
+      <c r="EY8" t="inlineStr"/>
+      <c r="EZ8" t="inlineStr"/>
+      <c r="FA8" t="inlineStr"/>
+      <c r="FB8" t="inlineStr"/>
+      <c r="FC8" t="inlineStr"/>
+      <c r="FD8" t="inlineStr"/>
+      <c r="FE8" t="inlineStr"/>
+      <c r="FF8" t="inlineStr"/>
+      <c r="FG8" t="inlineStr"/>
+      <c r="FH8" t="inlineStr"/>
+      <c r="FI8" t="inlineStr"/>
+      <c r="FJ8" t="inlineStr"/>
+      <c r="FK8" t="inlineStr"/>
+      <c r="FL8" t="inlineStr"/>
+      <c r="FM8" t="inlineStr"/>
+      <c r="FN8" t="inlineStr"/>
+      <c r="FO8" t="inlineStr"/>
+      <c r="FP8" t="inlineStr"/>
+      <c r="FQ8" t="inlineStr"/>
+      <c r="FR8" t="inlineStr"/>
+      <c r="FS8" t="inlineStr"/>
+      <c r="FT8" t="inlineStr"/>
+      <c r="FU8" t="inlineStr"/>
+      <c r="FV8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5167,17 +4987,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>039bd091-4e1b-48d9-8b07-59422db15f26</t>
+          <t>67db7df7-e666-4013-9a95-fb6193d882c4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-06T10:33:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-20T02:06:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -5190,7 +5010,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/039bd0914e1b48d98b0759422db15f26</t>
+          <t>https://www.notion.so/67db7df7e66640139a95fb6193d882c4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -5211,7 +5031,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -5324,7 +5144,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
+          <t>[{'id': 'd8178da7-a5cc-474f-9c6e-ed3029f89c4d'}]</t>
         </is>
       </c>
       <c r="AR9" t="b">
@@ -5589,7 +5409,7 @@
       </c>
       <c r="DJ9" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK9" t="inlineStr">
@@ -5623,60 +5443,291 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR9" t="inlineStr"/>
-      <c r="DS9" t="inlineStr"/>
-      <c r="DT9" t="inlineStr"/>
-      <c r="DU9" t="inlineStr"/>
-      <c r="DV9" t="inlineStr"/>
-      <c r="DW9" t="inlineStr"/>
-      <c r="DX9" t="inlineStr"/>
-      <c r="DY9" t="inlineStr"/>
-      <c r="DZ9" t="inlineStr"/>
-      <c r="EA9" t="inlineStr"/>
-      <c r="EB9" t="inlineStr"/>
-      <c r="EC9" t="inlineStr"/>
-      <c r="ED9" t="inlineStr"/>
-      <c r="EE9" t="inlineStr"/>
-      <c r="EF9" t="inlineStr"/>
-      <c r="EG9" t="inlineStr"/>
-      <c r="EH9" t="inlineStr"/>
-      <c r="EI9" t="inlineStr"/>
-      <c r="EJ9" t="inlineStr"/>
-      <c r="EK9" t="inlineStr"/>
-      <c r="EL9" t="inlineStr"/>
-      <c r="EM9" t="inlineStr"/>
-      <c r="EN9" t="inlineStr"/>
-      <c r="EO9" t="inlineStr"/>
-      <c r="EP9" t="inlineStr"/>
-      <c r="EQ9" t="inlineStr"/>
-      <c r="ER9" t="inlineStr"/>
-      <c r="ES9" t="inlineStr"/>
-      <c r="ET9" t="inlineStr"/>
-      <c r="EU9" t="inlineStr"/>
-      <c r="EV9" t="inlineStr"/>
-      <c r="EW9" t="inlineStr"/>
-      <c r="EX9" t="inlineStr"/>
-      <c r="EY9" t="inlineStr"/>
-      <c r="EZ9" t="inlineStr"/>
-      <c r="FA9" t="inlineStr"/>
-      <c r="FB9" t="inlineStr"/>
-      <c r="FC9" t="inlineStr"/>
-      <c r="FD9" t="inlineStr"/>
-      <c r="FE9" t="inlineStr"/>
-      <c r="FF9" t="inlineStr"/>
-      <c r="FG9" t="inlineStr"/>
-      <c r="FH9" t="inlineStr"/>
-      <c r="FI9" t="inlineStr"/>
-      <c r="FJ9" t="inlineStr"/>
-      <c r="FK9" t="inlineStr"/>
-      <c r="FL9" t="inlineStr"/>
-      <c r="FM9" t="inlineStr"/>
-      <c r="FN9" t="inlineStr"/>
-      <c r="FO9" t="inlineStr"/>
-      <c r="FP9" t="inlineStr"/>
-      <c r="FQ9" t="inlineStr"/>
-      <c r="FR9" t="inlineStr"/>
-      <c r="FS9" t="inlineStr"/>
+      <c r="DR9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>VRLp</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="ES9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5686,7 +5737,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14bd8477-ff03-4967-a053-6642a8640c0d</t>
+          <t>039bd091-4e1b-48d9-8b07-59422db15f26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5709,7 +5760,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14bd8477ff034967a0536642a8640c0d</t>
+          <t>https://www.notion.so/039bd0914e1b48d98b0759422db15f26</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -5843,7 +5894,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
+          <t>[{'id': 'e49d0ce3-124d-4e4b-b377-be2139cde3f5'}]</t>
         </is>
       </c>
       <c r="AR10" t="b">
@@ -6196,6 +6247,9 @@
       <c r="FQ10" t="inlineStr"/>
       <c r="FR10" t="inlineStr"/>
       <c r="FS10" t="inlineStr"/>
+      <c r="FT10" t="inlineStr"/>
+      <c r="FU10" t="inlineStr"/>
+      <c r="FV10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6205,7 +6259,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3525a79c-1a86-4907-afbc-e7143db1cde1</t>
+          <t>14bd8477-ff03-4967-a053-6642a8640c0d</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6228,7 +6282,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3525a79c1a864907afbce7143db1cde1</t>
+          <t>https://www.notion.so/14bd8477ff034967a0536642a8640c0d</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -6362,7 +6416,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
+          <t>[{'id': 'b9c67786-5d99-45c1-85d7-f96bfb66ef22'}]</t>
         </is>
       </c>
       <c r="AR11" t="b">
@@ -6715,6 +6769,9 @@
       <c r="FQ11" t="inlineStr"/>
       <c r="FR11" t="inlineStr"/>
       <c r="FS11" t="inlineStr"/>
+      <c r="FT11" t="inlineStr"/>
+      <c r="FU11" t="inlineStr"/>
+      <c r="FV11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6724,7 +6781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>573d5bec-3710-4734-8576-78480675e709</t>
+          <t>3525a79c-1a86-4907-afbc-e7143db1cde1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6734,7 +6791,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-18T10:57:00.000Z</t>
+          <t>2024-07-02T18:02:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -6747,7 +6804,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/573d5bec37104734857678480675e709</t>
+          <t>https://www.notion.so/3525a79c1a864907afbce7143db1cde1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -6768,7 +6825,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -6881,7 +6938,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
+          <t>[{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]</t>
         </is>
       </c>
       <c r="AR12" t="b">
@@ -7146,7 +7203,7 @@
       </c>
       <c r="DJ12" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK12" t="inlineStr">
@@ -7180,276 +7237,63 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DV12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DW12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DX12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH12" t="inlineStr">
-        <is>
-          <t>VRLp</t>
-        </is>
-      </c>
-      <c r="FI12" t="inlineStr">
-        <is>
-          <t>Nghỉ có phép</t>
-        </is>
-      </c>
-      <c r="FJ12" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="FK12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ12" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR12" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS12" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr"/>
+      <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr"/>
+      <c r="DV12" t="inlineStr"/>
+      <c r="DW12" t="inlineStr"/>
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="inlineStr"/>
+      <c r="DZ12" t="inlineStr"/>
+      <c r="EA12" t="inlineStr"/>
+      <c r="EB12" t="inlineStr"/>
+      <c r="EC12" t="inlineStr"/>
+      <c r="ED12" t="inlineStr"/>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
+      <c r="EG12" t="inlineStr"/>
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="inlineStr"/>
+      <c r="EK12" t="inlineStr"/>
+      <c r="EL12" t="inlineStr"/>
+      <c r="EM12" t="inlineStr"/>
+      <c r="EN12" t="inlineStr"/>
+      <c r="EO12" t="inlineStr"/>
+      <c r="EP12" t="inlineStr"/>
+      <c r="EQ12" t="inlineStr"/>
+      <c r="ER12" t="inlineStr"/>
+      <c r="ES12" t="inlineStr"/>
+      <c r="ET12" t="inlineStr"/>
+      <c r="EU12" t="inlineStr"/>
+      <c r="EV12" t="inlineStr"/>
+      <c r="EW12" t="inlineStr"/>
+      <c r="EX12" t="inlineStr"/>
+      <c r="EY12" t="inlineStr"/>
+      <c r="EZ12" t="inlineStr"/>
+      <c r="FA12" t="inlineStr"/>
+      <c r="FB12" t="inlineStr"/>
+      <c r="FC12" t="inlineStr"/>
+      <c r="FD12" t="inlineStr"/>
+      <c r="FE12" t="inlineStr"/>
+      <c r="FF12" t="inlineStr"/>
+      <c r="FG12" t="inlineStr"/>
+      <c r="FH12" t="inlineStr"/>
+      <c r="FI12" t="inlineStr"/>
+      <c r="FJ12" t="inlineStr"/>
+      <c r="FK12" t="inlineStr"/>
+      <c r="FL12" t="inlineStr"/>
+      <c r="FM12" t="inlineStr"/>
+      <c r="FN12" t="inlineStr"/>
+      <c r="FO12" t="inlineStr"/>
+      <c r="FP12" t="inlineStr"/>
+      <c r="FQ12" t="inlineStr"/>
+      <c r="FR12" t="inlineStr"/>
+      <c r="FS12" t="inlineStr"/>
+      <c r="FT12" t="inlineStr"/>
+      <c r="FU12" t="inlineStr"/>
+      <c r="FV12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7459,7 +7303,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>671720b3-96d1-4d6b-9a74-8d57582dd948</t>
+          <t>573d5bec-3710-4734-8576-78480675e709</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7469,7 +7313,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-18T10:57:00.000Z</t>
+          <t>2024-07-20T02:06:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -7482,7 +7326,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/671720b396d14d6b9a748d57582dd948</t>
+          <t>https://www.notion.so/573d5bec37104734857678480675e709</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -7616,7 +7460,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
+          <t>[{'id': '467f676f-8f46-49b5-afea-feecb0794d23'}]</t>
         </is>
       </c>
       <c r="AR13" t="b">
@@ -8067,17 +7911,17 @@
       </c>
       <c r="EV13" t="inlineStr">
         <is>
-          <t>xQp=</t>
+          <t>DjwF</t>
         </is>
       </c>
       <c r="EW13" t="inlineStr">
         <is>
-          <t>Nửa ngày</t>
+          <t>Đầy đủ</t>
         </is>
       </c>
       <c r="EX13" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="EY13" t="inlineStr">
@@ -8142,45 +7986,60 @@
       </c>
       <c r="FK13" t="inlineStr">
         <is>
+          <t>VRLp</t>
+        </is>
+      </c>
+      <c r="FL13" t="inlineStr">
+        <is>
+          <t>Nghỉ có phép</t>
+        </is>
+      </c>
+      <c r="FM13" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="FN13" t="inlineStr">
+        <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FL13" t="inlineStr">
+      <c r="FO13" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FM13" t="inlineStr">
+      <c r="FP13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FN13" t="inlineStr">
+      <c r="FQ13" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO13" t="inlineStr">
+      <c r="FR13" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP13" t="inlineStr">
+      <c r="FS13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FQ13" t="inlineStr">
+      <c r="FT13" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FR13" t="inlineStr">
+      <c r="FU13" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FS13" t="inlineStr">
+      <c r="FV13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -8194,7 +8053,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>b6c770d0-bb31-4e81-9bb1-58097d2fa0a7</t>
+          <t>671720b3-96d1-4d6b-9a74-8d57582dd948</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8204,7 +8063,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-08T10:44:00.000Z</t>
+          <t>2024-07-20T02:06:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -8217,7 +8076,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/b6c770d0bb314e819bb158097d2fa0a7</t>
+          <t>https://www.notion.so/671720b396d14d6b9a748d57582dd948</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -8351,7 +8210,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
+          <t>[{'id': '3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389'}]</t>
         </is>
       </c>
       <c r="AR14" t="b">
@@ -8616,7 +8475,7 @@
       </c>
       <c r="DJ14" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK14" t="inlineStr">
@@ -8650,51 +8509,231 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR14" t="inlineStr"/>
-      <c r="DS14" t="inlineStr"/>
-      <c r="DT14" t="inlineStr"/>
-      <c r="DU14" t="inlineStr"/>
-      <c r="DV14" t="inlineStr"/>
-      <c r="DW14" t="inlineStr"/>
-      <c r="DX14" t="inlineStr"/>
-      <c r="DY14" t="inlineStr"/>
-      <c r="DZ14" t="inlineStr"/>
-      <c r="EA14" t="inlineStr"/>
-      <c r="EB14" t="inlineStr"/>
-      <c r="EC14" t="inlineStr"/>
-      <c r="ED14" t="inlineStr"/>
-      <c r="EE14" t="inlineStr"/>
-      <c r="EF14" t="inlineStr"/>
-      <c r="EG14" t="inlineStr"/>
-      <c r="EH14" t="inlineStr"/>
-      <c r="EI14" t="inlineStr"/>
-      <c r="EJ14" t="inlineStr"/>
-      <c r="EK14" t="inlineStr"/>
-      <c r="EL14" t="inlineStr"/>
-      <c r="EM14" t="inlineStr"/>
-      <c r="EN14" t="inlineStr"/>
-      <c r="EO14" t="inlineStr"/>
-      <c r="EP14" t="inlineStr"/>
-      <c r="EQ14" t="inlineStr"/>
-      <c r="ER14" t="inlineStr"/>
-      <c r="ES14" t="inlineStr"/>
-      <c r="ET14" t="inlineStr"/>
-      <c r="EU14" t="inlineStr"/>
-      <c r="EV14" t="inlineStr"/>
-      <c r="EW14" t="inlineStr"/>
-      <c r="EX14" t="inlineStr"/>
-      <c r="EY14" t="inlineStr"/>
-      <c r="EZ14" t="inlineStr"/>
-      <c r="FA14" t="inlineStr"/>
-      <c r="FB14" t="inlineStr"/>
-      <c r="FC14" t="inlineStr"/>
-      <c r="FD14" t="inlineStr"/>
-      <c r="FE14" t="inlineStr"/>
-      <c r="FF14" t="inlineStr"/>
-      <c r="FG14" t="inlineStr"/>
-      <c r="FH14" t="inlineStr"/>
-      <c r="FI14" t="inlineStr"/>
-      <c r="FJ14" t="inlineStr"/>
+      <c r="DR14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>xQp=</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="FK14" t="inlineStr">
         <is>
           <t>DjwF</t>
@@ -8710,12 +8749,51 @@
           <t>pink</t>
         </is>
       </c>
-      <c r="FN14" t="inlineStr"/>
-      <c r="FO14" t="inlineStr"/>
-      <c r="FP14" t="inlineStr"/>
-      <c r="FQ14" t="inlineStr"/>
-      <c r="FR14" t="inlineStr"/>
-      <c r="FS14" t="inlineStr"/>
+      <c r="FN14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8725,7 +8803,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ca8f4290-3122-4d53-9521-dad11b15705c</t>
+          <t>b6c770d0-bb31-4e81-9bb1-58097d2fa0a7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8735,7 +8813,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-08T10:44:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -8748,7 +8826,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ca8f429031224d539521dad11b15705c</t>
+          <t>https://www.notion.so/b6c770d0bb314e819bb158097d2fa0a7</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -8769,7 +8847,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -8882,7 +8960,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
+          <t>[{'id': '75046948-a198-4627-89b3-3bbf5967526b'}]</t>
         </is>
       </c>
       <c r="AR15" t="b">
@@ -9229,12 +9307,27 @@
       <c r="FK15" t="inlineStr"/>
       <c r="FL15" t="inlineStr"/>
       <c r="FM15" t="inlineStr"/>
-      <c r="FN15" t="inlineStr"/>
-      <c r="FO15" t="inlineStr"/>
-      <c r="FP15" t="inlineStr"/>
+      <c r="FN15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="FQ15" t="inlineStr"/>
       <c r="FR15" t="inlineStr"/>
       <c r="FS15" t="inlineStr"/>
+      <c r="FT15" t="inlineStr"/>
+      <c r="FU15" t="inlineStr"/>
+      <c r="FV15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9244,7 +9337,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>deb63111-80c7-44a6-8473-e052d5d97945</t>
+          <t>ca8f4290-3122-4d53-9521-dad11b15705c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9267,7 +9360,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/deb6311180c744a68473e052d5d97945</t>
+          <t>https://www.notion.so/ca8f429031224d539521dad11b15705c</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -9401,7 +9494,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
+          <t>[{'id': 'a73ea60d-3de1-4e9b-aa7b-f22fda5742bd'}]</t>
         </is>
       </c>
       <c r="AR16" t="b">
@@ -9666,7 +9759,7 @@
       </c>
       <c r="DJ16" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'KqT_', 'name': 'CẦN THƠ', 'color': 'purple'}}]</t>
         </is>
       </c>
       <c r="DK16" t="inlineStr">
@@ -9754,6 +9847,9 @@
       <c r="FQ16" t="inlineStr"/>
       <c r="FR16" t="inlineStr"/>
       <c r="FS16" t="inlineStr"/>
+      <c r="FT16" t="inlineStr"/>
+      <c r="FU16" t="inlineStr"/>
+      <c r="FV16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9763,7 +9859,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ed3b34cd-1de3-46d7-8e4f-84e80940c393</t>
+          <t>deb63111-80c7-44a6-8473-e052d5d97945</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9773,7 +9869,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-18T10:57:00.000Z</t>
+          <t>2024-07-02T18:02:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -9786,7 +9882,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ed3b34cd1de346d78e4f84e80940c393</t>
+          <t>https://www.notion.so/deb6311180c744a68473e052d5d97945</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -9807,7 +9903,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -9920,7 +10016,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
+          <t>[{'id': '3fac4a49-402c-4d34-aa91-419ebc20760c'}]</t>
         </is>
       </c>
       <c r="AR17" t="b">
@@ -10185,7 +10281,7 @@
       </c>
       <c r="DJ17" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
         </is>
       </c>
       <c r="DK17" t="inlineStr">
@@ -10219,276 +10315,63 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DS17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DT17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="DU17" t="inlineStr">
-        <is>
-          <t>Evwd</t>
-        </is>
-      </c>
-      <c r="DV17" t="inlineStr">
-        <is>
-          <t>Nửa ngày</t>
-        </is>
-      </c>
-      <c r="DW17" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="DX17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="DY17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="DZ17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EA17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EB17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EC17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ED17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EE17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EF17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EG17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EH17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EI17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EJ17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EK17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EL17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EM17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EN17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EO17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EP17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EQ17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="ER17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="ES17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="ET17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EU17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EV17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EW17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="EX17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="EY17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="EZ17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FA17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FB17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FC17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FD17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FE17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FF17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FG17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FH17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FI17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FJ17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FK17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FL17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FM17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FN17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="FQ17" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FR17" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FS17" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="DR17" t="inlineStr"/>
+      <c r="DS17" t="inlineStr"/>
+      <c r="DT17" t="inlineStr"/>
+      <c r="DU17" t="inlineStr"/>
+      <c r="DV17" t="inlineStr"/>
+      <c r="DW17" t="inlineStr"/>
+      <c r="DX17" t="inlineStr"/>
+      <c r="DY17" t="inlineStr"/>
+      <c r="DZ17" t="inlineStr"/>
+      <c r="EA17" t="inlineStr"/>
+      <c r="EB17" t="inlineStr"/>
+      <c r="EC17" t="inlineStr"/>
+      <c r="ED17" t="inlineStr"/>
+      <c r="EE17" t="inlineStr"/>
+      <c r="EF17" t="inlineStr"/>
+      <c r="EG17" t="inlineStr"/>
+      <c r="EH17" t="inlineStr"/>
+      <c r="EI17" t="inlineStr"/>
+      <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr"/>
+      <c r="EO17" t="inlineStr"/>
+      <c r="EP17" t="inlineStr"/>
+      <c r="EQ17" t="inlineStr"/>
+      <c r="ER17" t="inlineStr"/>
+      <c r="ES17" t="inlineStr"/>
+      <c r="ET17" t="inlineStr"/>
+      <c r="EU17" t="inlineStr"/>
+      <c r="EV17" t="inlineStr"/>
+      <c r="EW17" t="inlineStr"/>
+      <c r="EX17" t="inlineStr"/>
+      <c r="EY17" t="inlineStr"/>
+      <c r="EZ17" t="inlineStr"/>
+      <c r="FA17" t="inlineStr"/>
+      <c r="FB17" t="inlineStr"/>
+      <c r="FC17" t="inlineStr"/>
+      <c r="FD17" t="inlineStr"/>
+      <c r="FE17" t="inlineStr"/>
+      <c r="FF17" t="inlineStr"/>
+      <c r="FG17" t="inlineStr"/>
+      <c r="FH17" t="inlineStr"/>
+      <c r="FI17" t="inlineStr"/>
+      <c r="FJ17" t="inlineStr"/>
+      <c r="FK17" t="inlineStr"/>
+      <c r="FL17" t="inlineStr"/>
+      <c r="FM17" t="inlineStr"/>
+      <c r="FN17" t="inlineStr"/>
+      <c r="FO17" t="inlineStr"/>
+      <c r="FP17" t="inlineStr"/>
+      <c r="FQ17" t="inlineStr"/>
+      <c r="FR17" t="inlineStr"/>
+      <c r="FS17" t="inlineStr"/>
+      <c r="FT17" t="inlineStr"/>
+      <c r="FU17" t="inlineStr"/>
+      <c r="FV17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10498,7 +10381,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000f1b67-a930-45df-a5ea-f1edee6ad917</t>
+          <t>ed3b34cd-1de3-46d7-8e4f-84e80940c393</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10508,7 +10391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-18T10:57:00.000Z</t>
+          <t>2024-07-20T02:06:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -10521,7 +10404,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/000f1b67a93045dfa5eaf1edee6ad917</t>
+          <t>https://www.notion.so/ed3b34cd1de346d78e4f84e80940c393</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -10655,7 +10538,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
+          <t>[{'id': 'e926d62c-e624-4663-9009-c562ae5166cf'}]</t>
         </is>
       </c>
       <c r="AR18" t="b">
@@ -10971,255 +10854,270 @@
       </c>
       <c r="DU18" t="inlineStr">
         <is>
+          <t>Evwd</t>
+        </is>
+      </c>
+      <c r="DV18" t="inlineStr">
+        <is>
+          <t>Nửa ngày</t>
+        </is>
+      </c>
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="DX18" t="inlineStr">
+        <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DV18" t="inlineStr">
+      <c r="DY18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DW18" t="inlineStr">
+      <c r="DZ18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="DX18" t="inlineStr">
+      <c r="EA18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="DY18" t="inlineStr">
+      <c r="EB18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="DZ18" t="inlineStr">
+      <c r="EC18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EA18" t="inlineStr">
+      <c r="ED18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EB18" t="inlineStr">
+      <c r="EE18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EC18" t="inlineStr">
+      <c r="EF18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="ED18" t="inlineStr">
+      <c r="EG18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EE18" t="inlineStr">
+      <c r="EH18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EF18" t="inlineStr">
+      <c r="EI18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EG18" t="inlineStr">
+      <c r="EJ18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EH18" t="inlineStr">
+      <c r="EK18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EI18" t="inlineStr">
+      <c r="EL18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EJ18" t="inlineStr">
+      <c r="EM18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EK18" t="inlineStr">
+      <c r="EN18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EL18" t="inlineStr">
+      <c r="EO18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EM18" t="inlineStr">
+      <c r="EP18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EN18" t="inlineStr">
+      <c r="EQ18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EO18" t="inlineStr">
+      <c r="ER18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EP18" t="inlineStr">
+      <c r="ES18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EQ18" t="inlineStr">
+      <c r="ET18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="ER18" t="inlineStr">
+      <c r="EU18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="ES18" t="inlineStr">
+      <c r="EV18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="ET18" t="inlineStr">
+      <c r="EW18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EU18" t="inlineStr">
+      <c r="EX18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EV18" t="inlineStr">
+      <c r="EY18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EW18" t="inlineStr">
+      <c r="EZ18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EX18" t="inlineStr">
+      <c r="FA18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EY18" t="inlineStr">
+      <c r="FB18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EZ18" t="inlineStr">
+      <c r="FC18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FA18" t="inlineStr">
+      <c r="FD18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FB18" t="inlineStr">
+      <c r="FE18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FC18" t="inlineStr">
+      <c r="FF18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FD18" t="inlineStr">
+      <c r="FG18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FE18" t="inlineStr">
+      <c r="FH18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FF18" t="inlineStr">
+      <c r="FI18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FG18" t="inlineStr">
+      <c r="FJ18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FH18" t="inlineStr">
+      <c r="FK18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI18" t="inlineStr">
+      <c r="FL18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ18" t="inlineStr">
+      <c r="FM18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK18" t="inlineStr">
+      <c r="FN18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FL18" t="inlineStr">
+      <c r="FO18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FM18" t="inlineStr">
+      <c r="FP18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FN18" t="inlineStr">
+      <c r="FQ18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO18" t="inlineStr">
+      <c r="FR18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP18" t="inlineStr">
+      <c r="FS18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FQ18" t="inlineStr">
+      <c r="FT18" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FR18" t="inlineStr">
+      <c r="FU18" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FS18" t="inlineStr">
+      <c r="FV18" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -11233,7 +11131,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>428f3abc-4f6b-4216-9986-10e2cc632bc3</t>
+          <t>000f1b67-a930-45df-a5ea-f1edee6ad917</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -11243,7 +11141,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-20T02:06:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -11256,7 +11154,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/428f3abc4f6b4216998610e2cc632bc3</t>
+          <t>https://www.notion.so/000f1b67a93045dfa5eaf1edee6ad917</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -11277,7 +11175,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -11390,7 +11288,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
+          <t>[{'id': 'd1ae645f-f3dd-46cd-a715-a8c150605da6'}]</t>
         </is>
       </c>
       <c r="AR19" t="b">
@@ -11655,7 +11553,7 @@
       </c>
       <c r="DJ19" t="inlineStr">
         <is>
-          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+          <t>[{'type': 'select', 'select': {'id': 'Lj_l', 'name': 'LONG XUYÊN', 'color': 'green'}}]</t>
         </is>
       </c>
       <c r="DK19" t="inlineStr">
@@ -11689,60 +11587,291 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="DR19" t="inlineStr"/>
-      <c r="DS19" t="inlineStr"/>
-      <c r="DT19" t="inlineStr"/>
-      <c r="DU19" t="inlineStr"/>
-      <c r="DV19" t="inlineStr"/>
-      <c r="DW19" t="inlineStr"/>
-      <c r="DX19" t="inlineStr"/>
-      <c r="DY19" t="inlineStr"/>
-      <c r="DZ19" t="inlineStr"/>
-      <c r="EA19" t="inlineStr"/>
-      <c r="EB19" t="inlineStr"/>
-      <c r="EC19" t="inlineStr"/>
-      <c r="ED19" t="inlineStr"/>
-      <c r="EE19" t="inlineStr"/>
-      <c r="EF19" t="inlineStr"/>
-      <c r="EG19" t="inlineStr"/>
-      <c r="EH19" t="inlineStr"/>
-      <c r="EI19" t="inlineStr"/>
-      <c r="EJ19" t="inlineStr"/>
-      <c r="EK19" t="inlineStr"/>
-      <c r="EL19" t="inlineStr"/>
-      <c r="EM19" t="inlineStr"/>
-      <c r="EN19" t="inlineStr"/>
-      <c r="EO19" t="inlineStr"/>
-      <c r="EP19" t="inlineStr"/>
-      <c r="EQ19" t="inlineStr"/>
-      <c r="ER19" t="inlineStr"/>
-      <c r="ES19" t="inlineStr"/>
-      <c r="ET19" t="inlineStr"/>
-      <c r="EU19" t="inlineStr"/>
-      <c r="EV19" t="inlineStr"/>
-      <c r="EW19" t="inlineStr"/>
-      <c r="EX19" t="inlineStr"/>
-      <c r="EY19" t="inlineStr"/>
-      <c r="EZ19" t="inlineStr"/>
-      <c r="FA19" t="inlineStr"/>
-      <c r="FB19" t="inlineStr"/>
-      <c r="FC19" t="inlineStr"/>
-      <c r="FD19" t="inlineStr"/>
-      <c r="FE19" t="inlineStr"/>
-      <c r="FF19" t="inlineStr"/>
-      <c r="FG19" t="inlineStr"/>
-      <c r="FH19" t="inlineStr"/>
-      <c r="FI19" t="inlineStr"/>
-      <c r="FJ19" t="inlineStr"/>
-      <c r="FK19" t="inlineStr"/>
-      <c r="FL19" t="inlineStr"/>
-      <c r="FM19" t="inlineStr"/>
-      <c r="FN19" t="inlineStr"/>
-      <c r="FO19" t="inlineStr"/>
-      <c r="FP19" t="inlineStr"/>
-      <c r="FQ19" t="inlineStr"/>
-      <c r="FR19" t="inlineStr"/>
-      <c r="FS19" t="inlineStr"/>
+      <c r="DR19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DS19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DT19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DU19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DV19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DW19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="DX19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="DY19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="DZ19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EA19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EC19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ED19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EE19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EF19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EG19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EI19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EM19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EP19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EY19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FF19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FG19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FH19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FI19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FJ19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FK19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FR19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FS19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FT19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11752,7 +11881,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c7fc0a04-87a3-456b-b158-678fcd016f12</t>
+          <t>428f3abc-4f6b-4216-9986-10e2cc632bc3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -11762,7 +11891,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-06T09:59:00.000Z</t>
+          <t>2024-07-02T18:02:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -11775,7 +11904,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/c7fc0a0487a3456bb158678fcd016f12</t>
+          <t>https://www.notion.so/428f3abc4f6b4216998610e2cc632bc3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -11909,7 +12038,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
+          <t>[{'id': 'c463b1a9-4fb2-4258-87a7-44193ba02405'}]</t>
         </is>
       </c>
       <c r="AR20" t="b">
@@ -12262,6 +12391,531 @@
       <c r="FQ20" t="inlineStr"/>
       <c r="FR20" t="inlineStr"/>
       <c r="FS20" t="inlineStr"/>
+      <c r="FT20" t="inlineStr"/>
+      <c r="FU20" t="inlineStr"/>
+      <c r="FV20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>c7fc0a04-87a3-456b-b158-678fcd016f12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-07-06T09:59:00.000Z</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/c7fc0a0487a3456bb158678fcd016f12</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>7a9c3003-7d16-4eaf-a09d-a55aafacde5e</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>%3BW%3FG</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>%3CJjN</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>%3CK%3FH</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>%3FA%7C%3C</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>BtWM</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>CwPo</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>DT%5Bd</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>J%7Bt%3C</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Kfrh</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>[{'id': '3d301dfe-6e3d-4d28-a249-1fd5fac9abd3'}]</t>
+        </is>
+      </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>K~Y%3D</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>MVnS</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>P%3Fjl</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>TVds</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>TY%7C_</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>YvCX</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>%5BBT%3C</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>_%5Erb</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>%60duC</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>avzr</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>b%3Fyl</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>bOrs</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>e%5EUO</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>fKUN</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>fezN</t>
+        </is>
+      </c>
+      <c r="CJ21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="inlineStr">
+        <is>
+          <t>iFzs</t>
+        </is>
+      </c>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr">
+        <is>
+          <t>jsqT</t>
+        </is>
+      </c>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>n%3CXZ</t>
+        </is>
+      </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr">
+        <is>
+          <t>rsuC</t>
+        </is>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>yEwL</t>
+        </is>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="CZ21" t="inlineStr"/>
+      <c r="DA21" t="inlineStr">
+        <is>
+          <t>zBvN</t>
+        </is>
+      </c>
+      <c r="DB21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr">
+        <is>
+          <t>%7B%3EFf</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DF21" t="inlineStr"/>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>%7BVCZ</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>[{'type': 'select', 'select': {'id': 'VWB;', 'name': 'SÓC TRĂNG', 'color': 'red'}}]</t>
+        </is>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>~q%3Ax</t>
+        </is>
+      </c>
+      <c r="DM21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="DN21" t="inlineStr"/>
+      <c r="DO21" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DP21" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="DR21" t="inlineStr"/>
+      <c r="DS21" t="inlineStr"/>
+      <c r="DT21" t="inlineStr"/>
+      <c r="DU21" t="inlineStr"/>
+      <c r="DV21" t="inlineStr"/>
+      <c r="DW21" t="inlineStr"/>
+      <c r="DX21" t="inlineStr"/>
+      <c r="DY21" t="inlineStr"/>
+      <c r="DZ21" t="inlineStr"/>
+      <c r="EA21" t="inlineStr"/>
+      <c r="EB21" t="inlineStr"/>
+      <c r="EC21" t="inlineStr"/>
+      <c r="ED21" t="inlineStr"/>
+      <c r="EE21" t="inlineStr"/>
+      <c r="EF21" t="inlineStr"/>
+      <c r="EG21" t="inlineStr"/>
+      <c r="EH21" t="inlineStr"/>
+      <c r="EI21" t="inlineStr"/>
+      <c r="EJ21" t="inlineStr"/>
+      <c r="EK21" t="inlineStr"/>
+      <c r="EL21" t="inlineStr"/>
+      <c r="EM21" t="inlineStr"/>
+      <c r="EN21" t="inlineStr"/>
+      <c r="EO21" t="inlineStr"/>
+      <c r="EP21" t="inlineStr"/>
+      <c r="EQ21" t="inlineStr"/>
+      <c r="ER21" t="inlineStr"/>
+      <c r="ES21" t="inlineStr"/>
+      <c r="ET21" t="inlineStr"/>
+      <c r="EU21" t="inlineStr"/>
+      <c r="EV21" t="inlineStr"/>
+      <c r="EW21" t="inlineStr"/>
+      <c r="EX21" t="inlineStr"/>
+      <c r="EY21" t="inlineStr"/>
+      <c r="EZ21" t="inlineStr"/>
+      <c r="FA21" t="inlineStr"/>
+      <c r="FB21" t="inlineStr"/>
+      <c r="FC21" t="inlineStr"/>
+      <c r="FD21" t="inlineStr"/>
+      <c r="FE21" t="inlineStr"/>
+      <c r="FF21" t="inlineStr"/>
+      <c r="FG21" t="inlineStr"/>
+      <c r="FH21" t="inlineStr"/>
+      <c r="FI21" t="inlineStr"/>
+      <c r="FJ21" t="inlineStr"/>
+      <c r="FK21" t="inlineStr"/>
+      <c r="FL21" t="inlineStr"/>
+      <c r="FM21" t="inlineStr"/>
+      <c r="FN21" t="inlineStr"/>
+      <c r="FO21" t="inlineStr"/>
+      <c r="FP21" t="inlineStr"/>
+      <c r="FQ21" t="inlineStr"/>
+      <c r="FR21" t="inlineStr"/>
+      <c r="FS21" t="inlineStr"/>
+      <c r="FT21" t="inlineStr"/>
+      <c r="FU21" t="inlineStr"/>
+      <c r="FV21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
+++ b/notion_data/CHAM_CONG_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FV21"/>
+  <dimension ref="A1:GB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,255 +1071,285 @@
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
+          <t>properties.Ngày 20.select.id</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 20.select.name</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 20.select.color</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
           <t>properties.Ngày 19.select.id</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 19.select.name</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 19.select.color</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 11.select.id</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 11.select.name</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 11.select.color</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 3.select.id</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 3.select.name</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 3.select.color</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 12.select.id</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 12.select.name</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 12.select.color</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 21.select.id</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 21.select.name</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày 21.select.color</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 10.select.id</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 10.select.name</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 10.select.color</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 2.select.id</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 2.select.name</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 2.select.color</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.id</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.name</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 7.select.color</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.id</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.name</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 1.select.color</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.id</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.name</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 9.select.color</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.id</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.name</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 16.select.color</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.id</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.name</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 15.select.color</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.id</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.name</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 13.select.color</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.id</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.name</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 18.select.color</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.id</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.name</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 17.select.color</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.id</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.name</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 8.select.color</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.id</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.name</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 4.select.color</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.id</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.name</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày 14.select.color</t>
         </is>
@@ -1846,6 +1876,12 @@
       <c r="FT2" t="inlineStr"/>
       <c r="FU2" t="inlineStr"/>
       <c r="FV2" t="inlineStr"/>
+      <c r="FW2" t="inlineStr"/>
+      <c r="FX2" t="inlineStr"/>
+      <c r="FY2" t="inlineStr"/>
+      <c r="FZ2" t="inlineStr"/>
+      <c r="GA2" t="inlineStr"/>
+      <c r="GB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2368,6 +2404,12 @@
       <c r="FT3" t="inlineStr"/>
       <c r="FU3" t="inlineStr"/>
       <c r="FV3" t="inlineStr"/>
+      <c r="FW3" t="inlineStr"/>
+      <c r="FX3" t="inlineStr"/>
+      <c r="FY3" t="inlineStr"/>
+      <c r="FZ3" t="inlineStr"/>
+      <c r="GA3" t="inlineStr"/>
+      <c r="GB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2890,6 +2932,12 @@
       <c r="FT4" t="inlineStr"/>
       <c r="FU4" t="inlineStr"/>
       <c r="FV4" t="inlineStr"/>
+      <c r="FW4" t="inlineStr"/>
+      <c r="FX4" t="inlineStr"/>
+      <c r="FY4" t="inlineStr"/>
+      <c r="FZ4" t="inlineStr"/>
+      <c r="GA4" t="inlineStr"/>
+      <c r="GB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3412,6 +3460,12 @@
       <c r="FT5" t="inlineStr"/>
       <c r="FU5" t="inlineStr"/>
       <c r="FV5" t="inlineStr"/>
+      <c r="FW5" t="inlineStr"/>
+      <c r="FX5" t="inlineStr"/>
+      <c r="FY5" t="inlineStr"/>
+      <c r="FZ5" t="inlineStr"/>
+      <c r="GA5" t="inlineStr"/>
+      <c r="GB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3934,6 +3988,12 @@
       <c r="FT6" t="inlineStr"/>
       <c r="FU6" t="inlineStr"/>
       <c r="FV6" t="inlineStr"/>
+      <c r="FW6" t="inlineStr"/>
+      <c r="FX6" t="inlineStr"/>
+      <c r="FY6" t="inlineStr"/>
+      <c r="FZ6" t="inlineStr"/>
+      <c r="GA6" t="inlineStr"/>
+      <c r="GB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4456,6 +4516,12 @@
       <c r="FT7" t="inlineStr"/>
       <c r="FU7" t="inlineStr"/>
       <c r="FV7" t="inlineStr"/>
+      <c r="FW7" t="inlineStr"/>
+      <c r="FX7" t="inlineStr"/>
+      <c r="FY7" t="inlineStr"/>
+      <c r="FZ7" t="inlineStr"/>
+      <c r="GA7" t="inlineStr"/>
+      <c r="GB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4978,6 +5044,12 @@
       <c r="FT8" t="inlineStr"/>
       <c r="FU8" t="inlineStr"/>
       <c r="FV8" t="inlineStr"/>
+      <c r="FW8" t="inlineStr"/>
+      <c r="FX8" t="inlineStr"/>
+      <c r="FY8" t="inlineStr"/>
+      <c r="FZ8" t="inlineStr"/>
+      <c r="GA8" t="inlineStr"/>
+      <c r="GB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4997,7 +5069,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-20T02:06:00.000Z</t>
+          <t>2024-07-21T10:38:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -5565,165 +5637,195 @@
       </c>
       <c r="EP9" t="inlineStr">
         <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="ES9" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EU9" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="EV9" t="inlineStr">
+        <is>
           <t>VRLp</t>
         </is>
       </c>
-      <c r="EQ9" t="inlineStr">
+      <c r="EW9" t="inlineStr">
         <is>
           <t>Nghỉ có phép</t>
         </is>
       </c>
-      <c r="ER9" t="inlineStr">
+      <c r="EX9" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="ES9" t="inlineStr">
+      <c r="EY9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="ET9" t="inlineStr">
+      <c r="EZ9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EU9" t="inlineStr">
+      <c r="FA9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EV9" t="inlineStr">
+      <c r="FB9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EW9" t="inlineStr">
+      <c r="FC9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="EX9" t="inlineStr">
+      <c r="FD9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="EY9" t="inlineStr">
+      <c r="FE9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="EZ9" t="inlineStr">
+      <c r="FF9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FA9" t="inlineStr">
+      <c r="FG9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FB9" t="inlineStr">
+      <c r="FH9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FC9" t="inlineStr">
+      <c r="FI9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FD9" t="inlineStr">
+      <c r="FJ9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FE9" t="inlineStr">
+      <c r="FK9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FF9" t="inlineStr">
+      <c r="FL9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FG9" t="inlineStr">
+      <c r="FM9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FH9" t="inlineStr">
+      <c r="FN9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI9" t="inlineStr">
+      <c r="FO9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ9" t="inlineStr">
+      <c r="FP9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK9" t="inlineStr">
+      <c r="FQ9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FL9" t="inlineStr">
+      <c r="FR9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FM9" t="inlineStr">
+      <c r="FS9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FN9" t="inlineStr">
+      <c r="FT9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO9" t="inlineStr">
+      <c r="FU9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP9" t="inlineStr">
+      <c r="FV9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FQ9" t="inlineStr">
+      <c r="FW9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FR9" t="inlineStr">
+      <c r="FX9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FS9" t="inlineStr">
+      <c r="FY9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FT9" t="inlineStr">
+      <c r="FZ9" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FU9" t="inlineStr">
+      <c r="GA9" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FV9" t="inlineStr">
+      <c r="GB9" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -6250,6 +6352,12 @@
       <c r="FT10" t="inlineStr"/>
       <c r="FU10" t="inlineStr"/>
       <c r="FV10" t="inlineStr"/>
+      <c r="FW10" t="inlineStr"/>
+      <c r="FX10" t="inlineStr"/>
+      <c r="FY10" t="inlineStr"/>
+      <c r="FZ10" t="inlineStr"/>
+      <c r="GA10" t="inlineStr"/>
+      <c r="GB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6772,6 +6880,12 @@
       <c r="FT11" t="inlineStr"/>
       <c r="FU11" t="inlineStr"/>
       <c r="FV11" t="inlineStr"/>
+      <c r="FW11" t="inlineStr"/>
+      <c r="FX11" t="inlineStr"/>
+      <c r="FY11" t="inlineStr"/>
+      <c r="FZ11" t="inlineStr"/>
+      <c r="GA11" t="inlineStr"/>
+      <c r="GB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7294,6 +7408,12 @@
       <c r="FT12" t="inlineStr"/>
       <c r="FU12" t="inlineStr"/>
       <c r="FV12" t="inlineStr"/>
+      <c r="FW12" t="inlineStr"/>
+      <c r="FX12" t="inlineStr"/>
+      <c r="FY12" t="inlineStr"/>
+      <c r="FZ12" t="inlineStr"/>
+      <c r="GA12" t="inlineStr"/>
+      <c r="GB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7313,7 +7433,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-20T02:06:00.000Z</t>
+          <t>2024-07-21T10:38:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -7986,60 +8106,90 @@
       </c>
       <c r="FK13" t="inlineStr">
         <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FL13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FM13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FN13" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FO13" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FP13" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FQ13" t="inlineStr">
+        <is>
           <t>VRLp</t>
         </is>
       </c>
-      <c r="FL13" t="inlineStr">
+      <c r="FR13" t="inlineStr">
         <is>
           <t>Nghỉ có phép</t>
         </is>
       </c>
-      <c r="FM13" t="inlineStr">
+      <c r="FS13" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="FN13" t="inlineStr">
+      <c r="FT13" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO13" t="inlineStr">
+      <c r="FU13" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP13" t="inlineStr">
+      <c r="FV13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FQ13" t="inlineStr">
+      <c r="FW13" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FR13" t="inlineStr">
+      <c r="FX13" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FS13" t="inlineStr">
+      <c r="FY13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FT13" t="inlineStr">
+      <c r="FZ13" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FU13" t="inlineStr">
+      <c r="GA13" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FV13" t="inlineStr">
+      <c r="GB13" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -8063,7 +8213,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-20T02:06:00.000Z</t>
+          <t>2024-07-21T10:38:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -8676,120 +8826,150 @@
       </c>
       <c r="EY14" t="inlineStr">
         <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FD14" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FE14" t="inlineStr">
+        <is>
           <t>xQp=</t>
         </is>
       </c>
-      <c r="EZ14" t="inlineStr">
+      <c r="FF14" t="inlineStr">
         <is>
           <t>Nửa ngày</t>
         </is>
       </c>
-      <c r="FA14" t="inlineStr">
+      <c r="FG14" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="FB14" t="inlineStr">
+      <c r="FH14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FC14" t="inlineStr">
+      <c r="FI14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FD14" t="inlineStr">
+      <c r="FJ14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FE14" t="inlineStr">
+      <c r="FK14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FF14" t="inlineStr">
+      <c r="FL14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FG14" t="inlineStr">
+      <c r="FM14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FH14" t="inlineStr">
+      <c r="FN14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FI14" t="inlineStr">
+      <c r="FO14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FJ14" t="inlineStr">
+      <c r="FP14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FK14" t="inlineStr">
+      <c r="FQ14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FL14" t="inlineStr">
+      <c r="FR14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FM14" t="inlineStr">
+      <c r="FS14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FN14" t="inlineStr">
+      <c r="FT14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FO14" t="inlineStr">
+      <c r="FU14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FP14" t="inlineStr">
+      <c r="FV14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FQ14" t="inlineStr">
+      <c r="FW14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FR14" t="inlineStr">
+      <c r="FX14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FS14" t="inlineStr">
+      <c r="FY14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="FT14" t="inlineStr">
+      <c r="FZ14" t="inlineStr">
         <is>
           <t>DjwF</t>
         </is>
       </c>
-      <c r="FU14" t="inlineStr">
+      <c r="GA14" t="inlineStr">
         <is>
           <t>Đầy đủ</t>
         </is>
       </c>
-      <c r="FV14" t="inlineStr">
+      <c r="GB14" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -8813,7 +8993,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-08T10:44:00.000Z</t>
+          <t>2024-07-21T10:38:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -9280,9 +9460,21 @@
       <c r="EJ15" t="inlineStr"/>
       <c r="EK15" t="inlineStr"/>
       <c r="EL15" t="inlineStr"/>
-      <c r="EM15" t="inlineStr"/>
-      <c r="EN15" t="inlineStr"/>
-      <c r="EO15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
       <c r="EP15" t="inlineStr"/>
       <c r="EQ15" t="inlineStr"/>
       <c r="ER15" t="inlineStr"/>
@@ -9307,27 +9499,33 @@
       <c r="FK15" t="inlineStr"/>
       <c r="FL15" t="inlineStr"/>
       <c r="FM15" t="inlineStr"/>
-      <c r="FN15" t="inlineStr">
-        <is>
-          <t>DjwF</t>
-        </is>
-      </c>
-      <c r="FO15" t="inlineStr">
-        <is>
-          <t>Đầy đủ</t>
-        </is>
-      </c>
-      <c r="FP15" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
+      <c r="FN15" t="inlineStr"/>
+      <c r="FO15" t="inlineStr"/>
+      <c r="FP15" t="inlineStr"/>
       <c r="FQ15" t="inlineStr"/>
       <c r="FR15" t="inlineStr"/>
       <c r="FS15" t="inlineStr"/>
-      <c r="FT15" t="inlineStr"/>
-      <c r="FU15" t="inlineStr"/>
-      <c r="FV15" t="inlineStr"/>
+      <c r="FT15" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FU15" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FV15" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW15" t="inlineStr"/>
+      <c r="FX15" t="inlineStr"/>
+      <c r="FY15" t="inlineStr"/>
+      <c r="FZ15" t="inlineStr"/>
+      <c r="GA15" t="inlineStr"/>
+      <c r="GB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9850,6 +10048,12 @@
       <c r="FT16" t="inlineStr"/>
       <c r="FU16" t="inlineStr"/>
       <c r="FV16" t="inlineStr"/>
+      <c r="FW16" t="inlineStr"/>
+      <c r="FX16" t="inlineStr"/>
+      <c r="FY16" t="inlineStr"/>
+      <c r="FZ16" t="inlineStr"/>
+      <c r="GA16" t="inlineStr"/>
+      <c r="GB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10372,6 +10576,12 @@
       <c r="FT17" t="inlineStr"/>
       <c r="FU17" t="inlineStr"/>
       <c r="FV17" t="inlineStr"/>
+      <c r="FW17" t="inlineStr"/>
+      <c r="FX17" t="inlineStr"/>
+      <c r="FY17" t="inlineStr"/>
+      <c r="FZ17" t="inlineStr"/>
+      <c r="GA17" t="inlineStr"/>
+      <c r="GB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10391,7 +10601,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-20T02:06:00.000Z</t>
+          <t>2024-07-21T10:38:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -11122,6 +11332,36 @@
           <t>pink</t>
         </is>
       </c>
+      <c r="FW18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ18" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA18" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB18" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11141,7 +11381,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-20T02:06:00.000Z</t>
+          <t>2024-07-21T10:38:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -11868,6 +12108,36 @@
         </is>
       </c>
       <c r="FV19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FW19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="FX19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="FY19" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="FZ19" t="inlineStr">
+        <is>
+          <t>DjwF</t>
+        </is>
+      </c>
+      <c r="GA19" t="inlineStr">
+        <is>
+          <t>Đầy đủ</t>
+        </is>
+      </c>
+      <c r="GB19" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -12394,6 +12664,12 @@
       <c r="FT20" t="inlineStr"/>
       <c r="FU20" t="inlineStr"/>
       <c r="FV20" t="inlineStr"/>
+      <c r="FW20" t="inlineStr"/>
+      <c r="FX20" t="inlineStr"/>
+      <c r="FY20" t="inlineStr"/>
+      <c r="FZ20" t="inlineStr"/>
+      <c r="GA20" t="inlineStr"/>
+      <c r="GB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12916,6 +13192,12 @@
       <c r="FT21" t="inlineStr"/>
       <c r="FU21" t="inlineStr"/>
       <c r="FV21" t="inlineStr"/>
+      <c r="FW21" t="inlineStr"/>
+      <c r="FX21" t="inlineStr"/>
+      <c r="FY21" t="inlineStr"/>
+      <c r="FZ21" t="inlineStr"/>
+      <c r="GA21" t="inlineStr"/>
+      <c r="GB21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
